--- a/1. 기능정리/Project06 - 요구사항 정의서 - 기범.xlsx
+++ b/1. 기능정리/Project06 - 요구사항 정의서 - 기범.xlsx
@@ -11,19 +11,19 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$36</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>현태</t>
   </si>
@@ -231,14 +231,6 @@
     <t>KB – M – 013</t>
   </si>
   <si>
-    <t>YS – P – 014
-YS – P – 015</t>
-  </si>
-  <si>
-    <t>YS – M – 014
-YS – M – 015</t>
-  </si>
-  <si>
     <t>HT – P – 021</t>
   </si>
   <si>
@@ -259,6 +251,521 @@
   </si>
   <si>
     <t>관리자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 페이지로 이동, 마감 직전인 리워드 펀딩 프로젝트 확인, 리워드 펀딩 샵 상품 일부 확인, 성공한 프로젝트 확인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">계정관련 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 비밀번호 입력하여 메인페이지로 이동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 &amp; 비밀번호 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 이메일을 입력하여 아이디를 찾기 &amp; 아이디, 이메일을 입력하여 비밀번호 변경 및 이메일 인증</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 이름 등 개인정보를 입력하여 회원을 가입</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정, 펀딩한 프로젝트 관리 및 등록한 프로젝트 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 펀딩 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 받은 프로젝트에서 발생한 수익률 대비 수익금으로 돌려주는 프로젝트
+- 업체명, 프로젝트명, 프로젝트 기간, 목표금액, 가격, 프로젝트 이미지, 사업자등록번호 등 
+입력하여 신청</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 펀딩 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 받은 프로젝트에서 상품으로 돌려주는 프로젝트
+- 업체명, 프로젝트명, 프로젝트기간, 목표금액, 상품가격, 상품 이미지, 사업자등록번호 등 입력하여 신청</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청 및 허가된 프로젝트를 수정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 펀딩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세화면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카테고리별로 프로젝트 조회 (IT, 가구, 가전, 푸드, 뷰티, 애견 등등) </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 &amp; 리워드 프로젝트 별로 상세조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 신고</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 프로젝트 신고 (제목과 신고 내용, 증거자료), 장난식으로 등록된 프로젝트 포함</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 프로젝트 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>런칭 예정 프로젝트 조회 (D-day, 목표 모금액, 카테고리, 소개 표시)
+- 프로젝트 상세페이지로 연결</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거의 프로젝트 조회 (날짜 기준 및 성공 및 실패 기준 검색)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 프로젝트 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공한 프로젝트 및 성공할 가능성이 높은 프로젝트 조회 (목표 모금액 및 목표날짜 기준)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 샵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">목표 달성한 리워드 프로젝트 상품을 따로 판매할수 있다.
+ - 상품명, 상품 이미지, 가격 등 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주문</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 조회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 상품을 조회 (IT, 가구, 가전, 푸드, 뷰티, 애견 등등)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품을 구매 신청 (주문자, 배송지, 연락처 등등)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주문 관리 및 상품 전체적인 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q &amp; A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>F A Q</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 이슈 및 회사 운영 관련 공지사항</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금한 사항을 질문하고 관리자로부터 답변을 받는 게시판
+- 글번호, 작성자, 게시글 제목, 등록 날짜, 내용, 답변 날짜, 답변 내용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 메인 컨셉 소개 및 펀딩 방법 소개 (투자하는 방법, 펀딩 반는 방법, 회원 자격, 투자후 수익/리워드 프로세스)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상담</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)
+- 모든 페이지 오른쪽 하단 플로팅 배너</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상담</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 간단한 정보 관리 및 불량 회원 투자 제한 (간단한 사유 포함)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 &amp; 리워드 프로젝트 신청 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자가 신청한 투자 &amp; 리워드 프로젝트를 승인 여부 결정 (미승인인 경우 간단한 사유 작성)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 현황관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 달성률 및 프로젝트 별 현황 관리 및 유사시 프로젝트 중단 논의</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량 프로젝트 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 신고 내용을 확인 후 해당 프로젝트에 대한 조치(반려, 프로젝트 제제, 프로젝트 중단 등)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 샵 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 신청 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품 등록 내용을 검토한 후 승인 여부 결정(미승인인 경우 간단한 사유 포함)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공자사항 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록 및 수정 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 올린 질문을 확인하고 검토하여 해당 질문에 대한 답변 등록</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 등록, 수정, 삭제</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q &amp; A 관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대1 채팅 상담</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 상담</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 실시간 채팅을 통한 문의를 응대 및 답변</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면관리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에 있는 배너 및 광고 관련 관리, 추천 펀딩 선택, 리워드 샵의 추천 상품 선택</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -675,11 +1182,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -729,9 +1275,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,9 +1285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,12 +1326,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -804,28 +1338,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,14 +1363,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG991"/>
+  <dimension ref="A1:AG999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C48" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1135,22 +1731,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1172,20 +1768,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1333,13 +1929,13 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1374,29 +1970,29 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19">
         <v>43854</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>43858</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>43859</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>43860</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>43861</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -1419,21 +2015,25 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="12">
         <v>1</v>
       </c>
@@ -1462,19 +2062,25 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="12">
         <v>1</v>
       </c>
@@ -1503,20 +2109,24 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="18">
+      <c r="A11" s="57"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="17">
         <v>2</v>
       </c>
       <c r="O11" s="15" t="s">
@@ -1544,20 +2154,24 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="18">
+      <c r="A12" s="57"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="17">
         <v>1</v>
       </c>
       <c r="O12" s="10" t="s">
@@ -1585,20 +2199,24 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="18"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
@@ -1619,21 +2237,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="18"/>
+    <row r="14" spans="1:33" ht="54" customHeight="1">
+      <c r="A14" s="57"/>
+      <c r="B14" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="17"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
@@ -1655,20 +2279,24 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="18">
+      <c r="A15" s="57"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="17">
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -1696,20 +2324,24 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="18">
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="17">
         <v>1</v>
       </c>
       <c r="O16" s="10" t="s">
@@ -1737,20 +2369,26 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="18">
+      <c r="A17" s="57"/>
+      <c r="B17" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="17">
         <v>1</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -1778,20 +2416,24 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="18">
+      <c r="A18" s="57"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="17">
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
@@ -1819,28 +2461,26 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="18">
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1860,28 +2500,26 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="18">
-        <v>2</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="A20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1901,28 +2539,26 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="18">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="A21" s="57"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1941,27 +2577,33 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="46.5" customHeight="1">
-      <c r="A22" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="18">
-        <v>3</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+    <row r="22" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="17">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1980,29 +2622,29 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="53.25" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="18">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>45</v>
-      </c>
+    <row r="23" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2022,26 +2664,32 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="18">
-        <v>3</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="10"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="17">
+        <v>2</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2061,26 +2709,26 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="18">
-        <v>3</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="14"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2100,26 +2748,26 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="18">
-        <v>3</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="16"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2138,27 +2786,29 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="51.75" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="18">
-        <v>3</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="16"/>
+    <row r="27" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A27" s="57"/>
+      <c r="B27" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2178,24 +2828,26 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="28.9" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="18">
-        <v>3</v>
-      </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2214,17 +2866,27 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+    <row r="29" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2243,17 +2905,35 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+    <row r="30" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A30" s="57"/>
+      <c r="B30" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="17">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2272,20 +2952,33 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+    <row r="31" spans="1:33" ht="46.5" customHeight="1">
+      <c r="A31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="17">
+        <v>3</v>
+      </c>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2304,23 +2997,33 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+    <row r="32" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="17">
+        <v>3</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="10"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2339,21 +3042,31 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+    <row r="33" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="17">
+        <v>3</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" s="14"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2372,25 +3085,31 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+    <row r="34" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="17">
+        <v>3</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="16"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2409,25 +3128,33 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+    <row r="35" spans="1:33" ht="51.75" customHeight="1">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="17">
+        <v>3</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P35" s="16"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2446,25 +3173,29 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+    <row r="36" spans="1:33" ht="28.9" customHeight="1">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="17">
+        <v>3</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2483,22 +3214,26 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="1"/>
+    <row r="37" spans="1:33" ht="31.5" customHeight="1">
+      <c r="A37" s="62"/>
+      <c r="B37" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2520,22 +3255,24 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="1"/>
+    <row r="38" spans="1:33" ht="31.5" customHeight="1">
+      <c r="A38" s="62"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2557,20 +3294,24 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+    <row r="39" spans="1:33" ht="30" customHeight="1">
+      <c r="A39" s="62"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2592,20 +3333,26 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+    <row r="40" spans="1:33" ht="29.25" customHeight="1">
+      <c r="A40" s="62"/>
+      <c r="B40" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2627,20 +3374,26 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+    <row r="41" spans="1:33" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A41" s="82"/>
+      <c r="B41" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="79"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2662,7 +3415,7 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
+    <row r="42" spans="1:33" ht="15.75" customHeight="1" thickTop="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2672,9 +3425,11 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2707,9 +3462,11 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2742,9 +3499,11 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2777,9 +3536,11 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2812,9 +3573,11 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -9277,14 +10040,286 @@
       <c r="AF230" s="1"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+    </row>
+    <row r="232" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+    </row>
+    <row r="233" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+    </row>
+    <row r="234" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+    </row>
+    <row r="235" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+    </row>
+    <row r="236" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+    </row>
+    <row r="237" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+    </row>
+    <row r="238" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A238" s="1"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
+      <c r="AD238" s="1"/>
+      <c r="AE238" s="1"/>
+      <c r="AF238" s="1"/>
+      <c r="AG238" s="1"/>
+    </row>
     <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
@@ -10038,20 +11073,30 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P28"/>
-  <mergeCells count="11">
+  <autoFilter ref="A7:P36"/>
+  <mergeCells count="13">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A9:A30"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A31:A41"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A9:A21"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
